--- a/results/pvalue_SIDER_rare_pathway_AUPR+AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_rare_pathway_AUPR+AUROCperdrug.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.242</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.459</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.975</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.371</t>
+          <t>16.245</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.818</t>
+          <t>14.648</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.174</t>
+          <t>2.775</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.033</t>
+          <t>2.793</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.033</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>11.432</t>
+          <t>10.459</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8.854</t>
+          <t>8.197</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.546</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.659</t>
+          <t>5.689</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.778</t>
+          <t>3.182</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
